--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-01_end.xlsx
@@ -1624,7 +1624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  I wouldn't say we're "fighting together" now. It's more like we're "co-belligerents." How did you get back here anyway?
+    <t xml:space="preserve">[name="Ch'en"]  I wouldn't say we're 'fighting together' now. It's more like we're 'co-belligerents.' How did you get back here anyway?
 </t>
   </si>
   <si>
